--- a/product_r.xlsx
+++ b/product_r.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>월별/품목별 판매수량/매출액 구하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>Galaxy S10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과  답</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,6 +682,11 @@
     <col min="10" max="10" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
@@ -781,6 +797,9 @@
       <c r="G7" s="10">
         <f t="shared" si="2"/>
         <v>800000</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
